--- a/omegaplus/omegaplus_gene_function.xlsx
+++ b/omegaplus/omegaplus_gene_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wengz\Dropbox\Chapter 3\Nebria_ingens_WGS\omegaplus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17996958-B706-484F-B33B-A66447523E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840D411E-7E80-445C-A8C2-5CAD3554C8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{06B4C02A-4F28-47C6-B7FF-2BB28C80CCA6}"/>
   </bookViews>
@@ -3535,18 +3535,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3561,7 +3555,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3571,16 +3565,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3898,16 +3897,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271B9D7-E5CF-4B23-AF06-F4CB3860B389}">
   <dimension ref="A1:H534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
     <col min="4" max="4" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="75.7265625" customWidth="1"/>
+    <col min="6" max="6" width="75.7265625" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.08984375" customWidth="1"/>
     <col min="12" max="12" width="14.81640625" customWidth="1"/>
     <col min="13" max="13" width="16.1796875" customWidth="1"/>
@@ -3929,7 +3929,7 @@
       <c r="E1" t="s">
         <v>420</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>421</v>
       </c>
       <c r="G1" t="s">
@@ -3978,16 +3978,16 @@
       <c r="D3" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       <c r="E6" t="s">
         <v>208</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>267</v>
       </c>
       <c r="G6" t="s">
@@ -4073,7 +4073,7 @@
       <c r="E7" t="s">
         <v>204</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
       <c r="E9" t="s">
         <v>212</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>261</v>
       </c>
       <c r="G9" t="s">
@@ -4142,7 +4142,7 @@
       <c r="E10" t="s">
         <v>197</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>274</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -4217,7 +4217,7 @@
       <c r="E13" t="s">
         <v>210</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>266</v>
       </c>
       <c r="G13" t="s">
@@ -4312,7 +4312,7 @@
       <c r="E17" t="s">
         <v>157</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G17" t="s">
@@ -4342,29 +4342,29 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
         <v>1238</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>127515</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>100.753</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="12" t="s">
         <v>1153</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4424,16 +4424,16 @@
       <c r="D22" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       <c r="E26" t="s">
         <v>159</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4556,16 +4556,16 @@
       <c r="D28" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4585,7 +4585,7 @@
       <c r="E29" t="s">
         <v>175</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>290</v>
       </c>
       <c r="G29" t="s">
@@ -4608,7 +4608,7 @@
       <c r="E30" t="s">
         <v>161</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G30" t="s">
@@ -4628,16 +4628,16 @@
       <c r="D31" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4654,16 +4654,16 @@
       <c r="D32" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4680,16 +4680,16 @@
       <c r="D33" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       <c r="E34" t="s">
         <v>103</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4726,16 +4726,16 @@
       <c r="D35" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4793,16 +4793,16 @@
       <c r="D38" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4819,16 +4819,16 @@
       <c r="D39" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       <c r="E40" t="s">
         <v>125</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>319</v>
       </c>
       <c r="G40" t="s">
@@ -4894,7 +4894,7 @@
       <c r="E42" t="s">
         <v>119</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4911,16 +4911,16 @@
       <c r="D43" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -4940,7 +4940,7 @@
       <c r="E44" t="s">
         <v>100</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4957,16 +4957,16 @@
       <c r="D45" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       <c r="E47" t="s">
         <v>68</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>357</v>
       </c>
       <c r="G47" t="s">
@@ -5029,7 +5029,7 @@
       <c r="E48" t="s">
         <v>113</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       <c r="E49" t="s">
         <v>155</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5069,33 +5069,33 @@
       <c r="E50" t="s">
         <v>75</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
         <v>60</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="9">
         <v>9285</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="9">
         <v>65.344399999999993</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="10" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       <c r="E52" t="s">
         <v>134</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       <c r="E53" t="s">
         <v>81</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       <c r="E54" t="s">
         <v>51</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>372</v>
       </c>
       <c r="G54" t="s">
@@ -5198,16 +5198,16 @@
       <c r="D56" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       <c r="E57" t="s">
         <v>77</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>351</v>
       </c>
       <c r="G57" t="s">
@@ -5250,7 +5250,7 @@
       <c r="E58" t="s">
         <v>33</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G58" t="s">
@@ -5273,7 +5273,7 @@
       <c r="E59" t="s">
         <v>35</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>388</v>
       </c>
       <c r="G59" t="s">
@@ -5322,7 +5322,7 @@
       <c r="E61" t="s">
         <v>115</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>329</v>
       </c>
       <c r="G61" t="s">
@@ -5342,16 +5342,16 @@
       <c r="D62" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5368,16 +5368,16 @@
       <c r="D63" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5394,16 +5394,16 @@
       <c r="D64" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>399</v>
       </c>
       <c r="G65" t="s">
@@ -5446,7 +5446,7 @@
       <c r="E66" t="s">
         <v>89</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>341</v>
       </c>
       <c r="G66" t="s">
@@ -5466,16 +5466,16 @@
       <c r="D67" t="s">
         <v>144</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       <c r="E68" t="s">
         <v>91</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>339</v>
       </c>
       <c r="G68" t="s">
@@ -5518,7 +5518,7 @@
       <c r="E69" t="s">
         <v>108</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       <c r="E71" t="s">
         <v>123</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>321</v>
       </c>
       <c r="G71" t="s">
@@ -5584,7 +5584,7 @@
       <c r="E72" t="s">
         <v>37</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G72" t="s">
@@ -5607,7 +5607,6 @@
       <c r="E73" t="s">
         <v>1152</v>
       </c>
-      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
@@ -5622,16 +5621,16 @@
       <c r="D74" t="s">
         <v>1150</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5651,7 +5650,7 @@
       <c r="E75" t="s">
         <v>83</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>347</v>
       </c>
       <c r="G75" t="s">
@@ -5674,7 +5673,7 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>395</v>
       </c>
       <c r="G76" t="s">
@@ -5697,7 +5696,6 @@
       <c r="E77" t="s">
         <v>1149</v>
       </c>
-      <c r="F77" s="8"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
@@ -5715,7 +5713,6 @@
       <c r="E78" t="s">
         <v>974</v>
       </c>
-      <c r="F78" s="8"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
@@ -5773,7 +5770,7 @@
       <c r="E81" t="s">
         <v>73</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5813,7 +5810,6 @@
       <c r="E83" t="s">
         <v>1146</v>
       </c>
-      <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
@@ -5831,7 +5827,7 @@
       <c r="E84" t="s">
         <v>121</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2" t="s">
         <v>323</v>
       </c>
       <c r="G84" t="s">
@@ -5857,7 +5853,7 @@
       <c r="E85" t="s">
         <v>130</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>315</v>
       </c>
       <c r="G85" t="s">
@@ -5883,7 +5879,6 @@
       <c r="E86" t="s">
         <v>171</v>
       </c>
-      <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
@@ -5898,16 +5893,16 @@
       <c r="D87" t="s">
         <v>163</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5927,7 +5922,7 @@
       <c r="E88" t="s">
         <v>79</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="2" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5944,16 +5939,16 @@
       <c r="D89" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -5973,7 +5968,7 @@
       <c r="E90" t="s">
         <v>106</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5993,7 +5988,7 @@
       <c r="E91" t="s">
         <v>41</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>380</v>
       </c>
     </row>
@@ -6013,7 +6008,7 @@
       <c r="E92" t="s">
         <v>62</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>363</v>
       </c>
       <c r="G92" t="s">
@@ -6036,7 +6031,7 @@
       <c r="E93" t="s">
         <v>87</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>343</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -6059,7 +6054,7 @@
       <c r="E94" t="s">
         <v>151</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6079,7 +6074,7 @@
       <c r="E95" t="s">
         <v>31</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="2" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6099,7 +6094,6 @@
       <c r="E96" t="s">
         <v>1144</v>
       </c>
-      <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
@@ -6117,7 +6111,7 @@
       <c r="E97" t="s">
         <v>58</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="2" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6134,16 +6128,16 @@
       <c r="D98" t="s">
         <v>1142</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="6" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -6189,30 +6183,30 @@
       <c r="E100" t="s">
         <v>1141</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="6">
+      <c r="F100" s="11"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="9">
         <v>596</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="9">
         <v>48040</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="9">
         <v>49.189100000000003</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" s="9" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6232,7 +6226,7 @@
       <c r="E102" t="s">
         <v>71</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2" t="s">
         <v>355</v>
       </c>
       <c r="G102" t="s">
@@ -6255,7 +6249,7 @@
       <c r="E103" t="s">
         <v>43</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2" t="s">
         <v>378</v>
       </c>
       <c r="G103" t="s">
@@ -6312,7 +6306,7 @@
       <c r="E106" t="s">
         <v>49</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="2" t="s">
         <v>374</v>
       </c>
       <c r="G106" t="s">
@@ -6448,7 +6442,7 @@
       <c r="E114" t="s">
         <v>132</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="2" t="s">
         <v>313</v>
       </c>
       <c r="G114" t="s">
@@ -6553,7 +6547,7 @@
       <c r="E120" t="s">
         <v>110</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="2" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6587,7 +6581,7 @@
       <c r="E122" t="s">
         <v>142</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6624,7 +6618,7 @@
       <c r="E124" t="s">
         <v>53</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2" t="s">
         <v>370</v>
       </c>
       <c r="G124" t="s">
@@ -6664,7 +6658,7 @@
       <c r="E126" t="s">
         <v>1</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2" t="s">
         <v>406</v>
       </c>
       <c r="G126" t="s">
@@ -6899,7 +6893,7 @@
       <c r="E140" t="s">
         <v>3</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>404</v>
       </c>
       <c r="G140" t="s">
@@ -6939,7 +6933,7 @@
       <c r="E142" t="s">
         <v>5</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="2" t="s">
         <v>402</v>
       </c>
       <c r="G142" t="s">
@@ -6996,7 +6990,7 @@
       <c r="E145" t="s">
         <v>39</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="2" t="s">
         <v>381</v>
       </c>
       <c r="G145" t="s">
@@ -7183,7 +7177,7 @@
       <c r="E156" t="s">
         <v>85</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="2" t="s">
         <v>345</v>
       </c>
       <c r="G156" t="s">
@@ -7220,7 +7214,7 @@
       <c r="E158" t="s">
         <v>7</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="2" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7305,7 +7299,7 @@
       <c r="E163" t="s">
         <v>66</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7390,7 +7384,7 @@
       <c r="E168" t="s">
         <v>136</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7911,7 +7905,7 @@
       <c r="E199" t="s">
         <v>117</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="2" t="s">
         <v>327</v>
       </c>
       <c r="G199" t="s">
@@ -8036,7 +8030,7 @@
       <c r="E206" t="s">
         <v>64</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="2" t="s">
         <v>360</v>
       </c>
       <c r="G206" t="s">
@@ -8209,7 +8203,7 @@
       <c r="E216" t="s">
         <v>11</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="2" t="s">
         <v>397</v>
       </c>
       <c r="G216" t="s">
@@ -8365,7 +8359,7 @@
       <c r="E225" t="s">
         <v>56</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="2" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8385,7 +8379,7 @@
       <c r="E226" t="s">
         <v>138</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="2" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8753,7 +8747,7 @@
       <c r="E248" t="s">
         <v>45</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G248" t="s">
